--- a/x_values.xlsx
+++ b/x_values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juho\Documents\GitHub\fe3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9BFEDB-C82F-45B9-8032-A66EC89AA1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B7FB2D-AFE8-41C0-BC20-6535B55FCB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E3916FF9-CC8E-4B65-AE1D-A77DF262EC87}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
   <si>
     <t>last_bidSize</t>
   </si>
@@ -147,9 +147,6 @@
     <t>RelativeSpread</t>
   </si>
   <si>
-    <t>bins(5?) e.g. pd.qcut(xbt[a], q=[0,.10,.5,.90,1])</t>
-  </si>
-  <si>
     <t>RelativeBuys</t>
   </si>
   <si>
@@ -184,6 +181,12 @@
   </si>
   <si>
     <t>nan -&gt; 0, std / ticksize</t>
+  </si>
+  <si>
+    <t>bins</t>
+  </si>
+  <si>
+    <t>(5?) e.g. pd.qcut(xbt[a], q=[0,.10,.5,.90,1])</t>
   </si>
 </sst>
 </file>
@@ -647,42 +650,42 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -704,10 +707,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35212257-27B3-416E-BF68-50614B5BA46D}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,13 +723,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -855,7 +858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -863,7 +866,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -874,7 +877,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -885,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -893,7 +896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -901,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -909,7 +912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -920,18 +923,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -939,7 +942,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -947,7 +950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -958,41 +961,44 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
       <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>37</v>
       </c>
       <c r="C29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -1000,7 +1006,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
         <v>33</v>
@@ -1008,7 +1014,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
         <v>33</v>
@@ -1016,7 +1022,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
         <v>33</v>
@@ -1024,7 +1030,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
         <v>33</v>

--- a/x_values.xlsx
+++ b/x_values.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juho\Documents\GitHub\fe3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaltofi-my.sharepoint.com/personal/niko_miller_aalto_fi/Documents/Documents/GitHub/fe3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B7FB2D-AFE8-41C0-BC20-6535B55FCB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{70B7FB2D-AFE8-41C0-BC20-6535B55FCB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{183A1F80-5CA5-4324-9810-03EF8615AEF0}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E3916FF9-CC8E-4B65-AE1D-A77DF262EC87}"/>
+    <workbookView xWindow="16110" yWindow="1545" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{E3916FF9-CC8E-4B65-AE1D-A77DF262EC87}"/>
   </bookViews>
   <sheets>
     <sheet name="X_indicators" sheetId="2" r:id="rId1"/>
@@ -36,6 +36,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={3D842553-164F-42CF-A54F-4DE5C6E8D798}</author>
+  </authors>
+  <commentList>
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{3D842553-164F-42CF-A54F-4DE5C6E8D798}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Täällä nollaa, joten logaritmi ei ehkä toimi?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
   <si>
@@ -193,7 +211,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,8 +226,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +243,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,9 +265,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -253,6 +284,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Miller Niko" id="{1C65039D-55FD-4970-863A-4D3845E841E8}" userId="Miller Niko" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -550,6 +587,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A19" dT="2022-03-31T08:21:23.78" personId="{1C65039D-55FD-4970-863A-4D3845E841E8}" id="{3D842553-164F-42CF-A54F-4DE5C6E8D798}">
+    <text>Täällä nollaa, joten logaritmi ei ehkä toimi?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631CF300-0A9A-49D5-ACF5-4513439C471B}">
   <dimension ref="A1:A25"/>
@@ -706,11 +751,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35212257-27B3-416E-BF68-50614B5BA46D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35212257-27B3-416E-BF68-50614B5BA46D}">
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,13 +923,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1038,5 +1083,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/x_values.xlsx
+++ b/x_values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juho\Documents\GitHub\fe3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B7FB2D-AFE8-41C0-BC20-6535B55FCB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D6FB00-17F8-44A3-93D9-BC74284A4ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E3916FF9-CC8E-4B65-AE1D-A77DF262EC87}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="50">
   <si>
     <t>last_bidSize</t>
   </si>
@@ -710,7 +710,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,8 +900,11 @@
       <c r="A21" t="s">
         <v>23</v>
       </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">

--- a/x_values.xlsx
+++ b/x_values.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaltofi-my.sharepoint.com/personal/niko_miller_aalto_fi/Documents/Documents/GitHub/fe3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{70B7FB2D-AFE8-41C0-BC20-6535B55FCB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{183A1F80-5CA5-4324-9810-03EF8615AEF0}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{70B7FB2D-AFE8-41C0-BC20-6535B55FCB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61910278-B11C-455F-90CF-ABAA3D7E882A}"/>
   <bookViews>
-    <workbookView xWindow="16110" yWindow="1545" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{E3916FF9-CC8E-4B65-AE1D-A77DF262EC87}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{E3916FF9-CC8E-4B65-AE1D-A77DF262EC87}"/>
   </bookViews>
   <sheets>
     <sheet name="X_indicators" sheetId="2" r:id="rId1"/>
     <sheet name="X2_indicators" sheetId="3" r:id="rId2"/>
     <sheet name="Transformations" sheetId="1" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Transformations!$A$1:$C$36</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -211,7 +214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,14 +229,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,12 +240,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,7 +259,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,7 +580,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A19" dT="2022-03-31T08:21:23.78" personId="{1C65039D-55FD-4970-863A-4D3845E841E8}" id="{3D842553-164F-42CF-A54F-4DE5C6E8D798}">
+  <threadedComment ref="A19" dT="2022-03-31T08:21:23.78" personId="{1C65039D-55FD-4970-863A-4D3845E841E8}" id="{3D842553-164F-42CF-A54F-4DE5C6E8D798}" done="1">
     <text>Täällä nollaa, joten logaritmi ei ehkä toimi?</text>
   </threadedComment>
 </ThreadedComments>
@@ -752,10 +743,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35212257-27B3-416E-BF68-50614B5BA46D}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,7 +769,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -785,7 +777,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -793,7 +785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -801,7 +793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -809,7 +801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -817,7 +809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -825,7 +817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -833,7 +825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -841,7 +833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -852,7 +844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -860,7 +852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -868,7 +860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -879,7 +871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -887,7 +879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -895,7 +887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -903,7 +895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -911,7 +903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -922,7 +914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -930,10 +922,10 @@
         <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -941,7 +933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -949,7 +941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -957,7 +949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -968,7 +960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -979,7 +971,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -987,7 +979,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -995,7 +987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1017,7 +1009,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1025,7 +1017,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1033,7 +1025,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1041,7 +1033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1049,7 +1041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -1057,7 +1049,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1065,7 +1057,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1073,7 +1065,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -1082,6 +1074,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C36" xr:uid="{35212257-27B3-416E-BF68-50614B5BA46D}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="bins"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/x_values.xlsx
+++ b/x_values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaltofi-my.sharepoint.com/personal/niko_miller_aalto_fi/Documents/Documents/GitHub/fe3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{70B7FB2D-AFE8-41C0-BC20-6535B55FCB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61910278-B11C-455F-90CF-ABAA3D7E882A}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{70B7FB2D-AFE8-41C0-BC20-6535B55FCB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85369320-D50E-4097-B9C2-868CCA992B50}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{E3916FF9-CC8E-4B65-AE1D-A77DF262EC87}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{E3916FF9-CC8E-4B65-AE1D-A77DF262EC87}"/>
   </bookViews>
   <sheets>
     <sheet name="X_indicators" sheetId="2" r:id="rId1"/>
@@ -747,7 +747,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,7 +833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -860,7 +860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -871,7 +871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -879,7 +879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -887,7 +887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -895,7 +895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -914,7 +914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -933,12 +933,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -998,7 +998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1077,7 +1077,7 @@
   <autoFilter ref="A1:C36" xr:uid="{35212257-27B3-416E-BF68-50614B5BA46D}">
     <filterColumn colId="2">
       <filters>
-        <filter val="bins"/>
+        <filter val="log(x+1)"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/x_values.xlsx
+++ b/x_values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaltofi-my.sharepoint.com/personal/niko_miller_aalto_fi/Documents/Documents/GitHub/fe3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{70B7FB2D-AFE8-41C0-BC20-6535B55FCB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85369320-D50E-4097-B9C2-868CCA992B50}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{70B7FB2D-AFE8-41C0-BC20-6535B55FCB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23F3AC26-DE55-4A4A-8AC9-B9E42E4C6495}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{E3916FF9-CC8E-4B65-AE1D-A77DF262EC87}"/>
+    <workbookView minimized="1" xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{E3916FF9-CC8E-4B65-AE1D-A77DF262EC87}"/>
   </bookViews>
   <sheets>
     <sheet name="X_indicators" sheetId="2" r:id="rId1"/>
@@ -747,7 +747,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,7 +833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -860,7 +860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -871,7 +871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -879,7 +879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -887,7 +887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -895,7 +895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -914,7 +914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -933,7 +933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -998,7 +998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1077,7 +1077,7 @@
   <autoFilter ref="A1:C36" xr:uid="{35212257-27B3-416E-BF68-50614B5BA46D}">
     <filterColumn colId="2">
       <filters>
-        <filter val="log(x+1)"/>
+        <filter val="bins"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/x_values.xlsx
+++ b/x_values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaltofi-my.sharepoint.com/personal/niko_miller_aalto_fi/Documents/Documents/GitHub/fe3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{70B7FB2D-AFE8-41C0-BC20-6535B55FCB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23F3AC26-DE55-4A4A-8AC9-B9E42E4C6495}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{70B7FB2D-AFE8-41C0-BC20-6535B55FCB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19F56CC5-93F3-43E1-BA0D-82B9114A2220}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{E3916FF9-CC8E-4B65-AE1D-A77DF262EC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E3916FF9-CC8E-4B65-AE1D-A77DF262EC87}"/>
   </bookViews>
   <sheets>
     <sheet name="X_indicators" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Transformations!$A$1:$C$36</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="9.9999999999994451E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -747,7 +747,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,12 +769,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -793,12 +793,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -971,12 +971,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -987,7 +987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -998,7 +998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1009,12 +1009,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1041,7 +1041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -1077,7 +1077,7 @@
   <autoFilter ref="A1:C36" xr:uid="{35212257-27B3-416E-BF68-50614B5BA46D}">
     <filterColumn colId="2">
       <filters>
-        <filter val="bins"/>
+        <filter val="norm"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/x_values.xlsx
+++ b/x_values.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaltofi-my.sharepoint.com/personal/niko_miller_aalto_fi/Documents/Documents/GitHub/fe3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{70B7FB2D-AFE8-41C0-BC20-6535B55FCB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19F56CC5-93F3-43E1-BA0D-82B9114A2220}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{70B7FB2D-AFE8-41C0-BC20-6535B55FCB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F92457F4-B75C-47A5-B355-BD26AD0FE238}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E3916FF9-CC8E-4B65-AE1D-A77DF262EC87}"/>
   </bookViews>
@@ -747,7 +747,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
